--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>20.489922854536992</v>
+        <v>20.489922854361481</v>
       </c>
       <c r="C2">
-        <v>36.174029369522337</v>
+        <v>36.174029369686998</v>
       </c>
       <c r="D2">
-        <v>37.346183867127856</v>
+        <v>37.346183770040149</v>
       </c>
       <c r="E2">
-        <v>80.711263672747592</v>
+        <v>80.711263671744888</v>
       </c>
       <c r="F2">
-        <v>32.136078883876287</v>
+        <v>32.136078832890121</v>
       </c>
       <c r="G2">
-        <v>14.457037686569688</v>
+        <v>14.457037680344486</v>
       </c>
       <c r="H2">
-        <v>46.878979528289186</v>
+        <v>46.878979528666783</v>
       </c>
       <c r="I2">
-        <v>46.700635430294696</v>
+        <v>46.700635429656735</v>
       </c>
       <c r="J2">
-        <v>38.05508061966372</v>
+        <v>38.055080624476126</v>
       </c>
       <c r="K2">
-        <v>14.595348826417172</v>
+        <v>14.595348804101887</v>
       </c>
       <c r="L2">
-        <v>8.5066009704601573</v>
+        <v>8.506600971197285</v>
       </c>
       <c r="M2">
-        <v>-14.332472635149562</v>
+        <v>-14.332472732928551</v>
       </c>
       <c r="N2">
-        <v>44.547723697357917</v>
+        <v>44.547723696691762</v>
       </c>
       <c r="O2">
-        <v>40.40726818489351</v>
+        <v>40.407268089080006</v>
       </c>
       <c r="P2">
-        <v>56.544560260310192</v>
+        <v>56.54456025995939</v>
       </c>
       <c r="Q2">
-        <v>5.3869871951213986</v>
+        <v>5.3869871773970699</v>
       </c>
       <c r="R2">
-        <v>-12.468736490442248</v>
+        <v>-12.468736369242462</v>
       </c>
       <c r="S2">
-        <v>81.07158797839125</v>
+        <v>81.071587977962707</v>
       </c>
       <c r="T2">
-        <v>64.210922489769274</v>
+        <v>64.210922473378091</v>
       </c>
       <c r="U2">
-        <v>10.468098325962446</v>
+        <v>10.468098278553438</v>
       </c>
       <c r="V2">
-        <v>25.759756950443151</v>
+        <v>25.759756944630357</v>
       </c>
       <c r="W2">
-        <v>-8.3545088541245338</v>
+        <v>-8.3545091679577279</v>
       </c>
       <c r="X2">
-        <v>13.453219070263106</v>
+        <v>13.453219000603831</v>
       </c>
       <c r="Y2">
-        <v>81.281746043952225</v>
+        <v>81.281746043618895</v>
       </c>
       <c r="Z2">
-        <v>39.40278202277652</v>
+        <v>39.40278194804111</v>
       </c>
       <c r="AA2">
-        <v>54.548676096663584</v>
+        <v>54.548675896747824</v>
       </c>
       <c r="AB2">
-        <v>48.588794262736187</v>
+        <v>48.58879407709847</v>
       </c>
       <c r="AC2">
-        <v>14.804433601381694</v>
+        <v>14.804433624814553</v>
       </c>
       <c r="AD2">
-        <v>80.97930589447337</v>
+        <v>80.979305894233107</v>
       </c>
       <c r="AE2">
-        <v>31.917774636990771</v>
+        <v>31.917774612462267</v>
       </c>
       <c r="AF2">
-        <v>41.68477214127865</v>
+        <v>41.684772101202668</v>
       </c>
       <c r="AG2">
-        <v>53.487459171417647</v>
+        <v>53.487459178580607</v>
       </c>
       <c r="AH2">
-        <v>50.947418501125675</v>
+        <v>50.947418493697057</v>
       </c>
       <c r="AI2">
-        <v>44.995783629660295</v>
+        <v>44.995783252422342</v>
       </c>
       <c r="AJ2">
-        <v>36.695104914979012</v>
+        <v>36.6951048603907</v>
       </c>
       <c r="AK2">
-        <v>36.600661317614325</v>
+        <v>36.600661317249944</v>
       </c>
       <c r="AL2">
-        <v>6.0735817672078962</v>
+        <v>6.0735816682413351</v>
       </c>
       <c r="AM2">
-        <v>48.339657583670864</v>
+        <v>48.339657388422012</v>
       </c>
       <c r="AN2">
-        <v>42.143335000302109</v>
+        <v>42.143334918405046</v>
       </c>
       <c r="AO2">
-        <v>72.709716554709459</v>
+        <v>72.709716556453756</v>
       </c>
       <c r="AP2">
-        <v>53.208966536900604</v>
+        <v>53.20896652086028</v>
       </c>
       <c r="AQ2">
-        <v>12.837924223889235</v>
+        <v>12.837923999517505</v>
       </c>
       <c r="AR2">
-        <v>72.271700674958794</v>
+        <v>72.271700674714893</v>
       </c>
       <c r="AS2">
-        <v>66.771605790138281</v>
+        <v>66.771605803231722</v>
       </c>
       <c r="AT2">
-        <v>38.71136841434992</v>
+        <v>38.711368709009221</v>
       </c>
       <c r="AU2">
-        <v>61.821492741001535</v>
+        <v>61.821492741461448</v>
       </c>
       <c r="AV2">
-        <v>43.741101833151383</v>
+        <v>43.741101551841034</v>
       </c>
       <c r="AW2">
-        <v>25.259030778991637</v>
+        <v>25.259030438523034</v>
       </c>
       <c r="AX2">
-        <v>57.780640843926975</v>
+        <v>57.780640787657532</v>
       </c>
       <c r="AY2">
-        <v>80.752431592935736</v>
+        <v>80.752431592492229</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>22.492700203730436</v>
+        <v>22.492700120394801</v>
       </c>
       <c r="C3">
-        <v>25.506006667156228</v>
+        <v>25.506006600147785</v>
       </c>
       <c r="D3">
-        <v>56.184846343605408</v>
+        <v>56.184846344564029</v>
       </c>
       <c r="E3">
-        <v>53.399491738357128</v>
+        <v>53.399491694952403</v>
       </c>
       <c r="F3">
-        <v>23.429532429097176</v>
+        <v>23.429532383453729</v>
       </c>
       <c r="G3">
-        <v>45.657769226544978</v>
+        <v>45.657769223484138</v>
       </c>
       <c r="H3">
-        <v>5.6201928760400062</v>
+        <v>5.6201928538292822</v>
       </c>
       <c r="I3">
-        <v>15.557858344686531</v>
+        <v>15.557858344833431</v>
       </c>
       <c r="J3">
-        <v>49.303783143778226</v>
+        <v>49.303783144239858</v>
       </c>
       <c r="K3">
-        <v>174.07019589214491</v>
+        <v>174.0701958933038</v>
       </c>
       <c r="L3">
-        <v>50.20914694078197</v>
+        <v>50.209146940661533</v>
       </c>
       <c r="M3">
-        <v>12.248735126205561</v>
+        <v>12.248220810660424</v>
       </c>
       <c r="N3">
-        <v>31.829701677782612</v>
+        <v>31.829701677687822</v>
       </c>
       <c r="O3">
-        <v>-43.181887385762415</v>
+        <v>-43.18188739632469</v>
       </c>
       <c r="P3">
-        <v>48.134788220871371</v>
+        <v>48.134788086502112</v>
       </c>
       <c r="Q3">
-        <v>31.869165393025767</v>
+        <v>31.869165392653382</v>
       </c>
       <c r="R3">
-        <v>10.459134292945977</v>
+        <v>10.459134016677968</v>
       </c>
       <c r="S3">
-        <v>61.465739895034623</v>
+        <v>61.465739894927438</v>
       </c>
       <c r="T3">
-        <v>55.204401754249943</v>
+        <v>55.204401754975848</v>
       </c>
       <c r="U3">
-        <v>39.477019207395422</v>
+        <v>39.477019199553411</v>
       </c>
       <c r="V3">
-        <v>44.914130515633651</v>
+        <v>44.914130514758611</v>
       </c>
       <c r="W3">
-        <v>8.9550783396380673</v>
+        <v>8.9550781618658082</v>
       </c>
       <c r="X3">
-        <v>-2.1239953148324937</v>
+        <v>-2.1239953641873308</v>
       </c>
       <c r="Y3">
-        <v>88.819717529130855</v>
+        <v>88.819717528741592</v>
       </c>
       <c r="Z3">
-        <v>57.416104990632476</v>
+        <v>57.416104886362398</v>
       </c>
       <c r="AA3">
-        <v>57.162681904874965</v>
+        <v>57.16268170423384</v>
       </c>
       <c r="AB3">
-        <v>53.863933407286893</v>
+        <v>53.863933305304599</v>
       </c>
       <c r="AC3">
-        <v>57.525345838066059</v>
+        <v>57.525345839392429</v>
       </c>
       <c r="AD3">
-        <v>68.541223642871685</v>
+        <v>68.541223643303255</v>
       </c>
       <c r="AE3">
-        <v>62.692897289140539</v>
+        <v>62.692897288023964</v>
       </c>
       <c r="AF3">
-        <v>38.277678813818476</v>
+        <v>38.277678712458965</v>
       </c>
       <c r="AG3">
-        <v>29.35538597527982</v>
+        <v>29.355385865659368</v>
       </c>
       <c r="AH3">
-        <v>24.233158001037136</v>
+        <v>24.233157914230819</v>
       </c>
       <c r="AI3">
-        <v>127.02020104206051</v>
+        <v>127.02020104325781</v>
       </c>
       <c r="AJ3">
-        <v>58.512453288881751</v>
+        <v>58.512453266826938</v>
       </c>
       <c r="AK3">
-        <v>46.409312341227995</v>
+        <v>46.40931233259041</v>
       </c>
       <c r="AL3">
-        <v>36.987261370015354</v>
+        <v>36.987261252513257</v>
       </c>
       <c r="AM3">
-        <v>50.495128909432793</v>
+        <v>50.495128695985912</v>
       </c>
       <c r="AN3">
-        <v>-5.790850729659927</v>
+        <v>-5.7908507828971372</v>
       </c>
       <c r="AO3">
-        <v>60.406542909178384</v>
+        <v>60.406542728759582</v>
       </c>
       <c r="AP3">
-        <v>24.155066066796852</v>
+        <v>24.155065960316101</v>
       </c>
       <c r="AQ3">
-        <v>36.533824265695301</v>
+        <v>36.533824193876427</v>
       </c>
       <c r="AR3">
-        <v>75.651540299827289</v>
+        <v>75.651540299915553</v>
       </c>
       <c r="AS3">
-        <v>43.515532603421207</v>
+        <v>43.515532584031391</v>
       </c>
       <c r="AT3">
-        <v>60.954366451365374</v>
+        <v>60.954366453476105</v>
       </c>
       <c r="AU3">
-        <v>35.783251799415197</v>
+        <v>35.783251803064438</v>
       </c>
       <c r="AV3">
-        <v>33.083132649972285</v>
+        <v>33.083132400370822</v>
       </c>
       <c r="AW3">
-        <v>28.151857435122636</v>
+        <v>28.151857364390526</v>
       </c>
       <c r="AX3">
-        <v>30.76322670427794</v>
+        <v>30.763226193138365</v>
       </c>
       <c r="AY3">
-        <v>89.869516425062258</v>
+        <v>89.869516424842701</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>20.489922854361481</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>36.174029369686998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>37.346183770040149</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>80.711263671744888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>32.136078832890121</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>14.457037680344486</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>46.878979528666783</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>46.700635429656735</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>38.055080624476126</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>14.595348804101887</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.506600971197285</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-14.332472732928551</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>44.547723696691762</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>40.407268089080006</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>56.54456025995939</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>5.3869871773970699</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-12.468736369242462</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>81.071587977962707</v>
+        <v>58.827015500351862</v>
       </c>
       <c r="T2">
         <v>64.210922473378091</v>
@@ -588,55 +477,55 @@
         <v>39.40278194804111</v>
       </c>
       <c r="AA2">
-        <v>54.548675896747824</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>48.58879407709847</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>14.804433624814553</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>80.979305894233107</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>31.917774612462267</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>41.684772101202668</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>53.487459178580607</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>50.947418493697057</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>44.995783252422342</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>36.6951048603907</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>36.600661317249944</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>6.0735816682413351</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>48.339657388422012</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>42.143334918405046</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>72.709716556453756</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>53.20896652086028</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>12.837923999517505</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>72.271700674714893</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>22.492700120394801</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>25.506006600147785</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>56.184846344564029</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>53.399491694952403</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>23.429532383453729</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>45.657769223484138</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.6201928538292822</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>15.557858344833431</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>49.303783144239858</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>174.0701958933038</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>50.209146940661533</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.248220810660424</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>31.829701677687822</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-43.18188739632469</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>48.134788086502112</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>31.869165392653382</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>10.459134016677968</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>61.465739894927438</v>
@@ -743,55 +629,55 @@
         <v>57.416104886362398</v>
       </c>
       <c r="AA3">
-        <v>57.16268170423384</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>53.863933305304599</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>57.525345839392429</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>68.541223643303255</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>62.692897288023964</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>38.277678712458965</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>29.355385865659368</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>24.233157914230819</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>127.02020104325781</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>58.512453266826938</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>46.40931233259041</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>36.987261252513257</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>50.495128695985912</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-5.7908507828971372</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>60.406542728759582</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>24.155065960316101</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>36.533824193876427</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>75.651540299915553</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.1579178889515</v>
+        <v>109.94574705276446</v>
       </c>
       <c r="C2">
-        <v>19.598188785896209</v>
+        <v>40.736074395676106</v>
       </c>
       <c r="D2">
-        <v>59.487812203944856</v>
+        <v>48.87056625032141</v>
       </c>
       <c r="E2">
-        <v>27.878270548128647</v>
+        <v>38.110677903548016</v>
       </c>
       <c r="F2">
         <v>33.829393954056201</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>26.86979334674643</v>
+        <v>68.291712523665268</v>
       </c>
       <c r="C3">
-        <v>34.915126866031834</v>
+        <v>44.34243611499398</v>
       </c>
       <c r="D3">
-        <v>48.851432707193773</v>
+        <v>47.032783547921092</v>
       </c>
       <c r="E3">
-        <v>128.88229514144885</v>
+        <v>17.959768971462918</v>
       </c>
       <c r="F3">
         <v>25.143259564549318</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.1579178889515</v>
+        <v>17.312042658875065</v>
       </c>
       <c r="C2">
-        <v>19.598188785896209</v>
+        <v>44.663834416666418</v>
       </c>
       <c r="D2">
-        <v>54.960389128487662</v>
+        <v>51.934247515874574</v>
       </c>
       <c r="E2">
-        <v>27.878270548128647</v>
+        <v>48.87056625032141</v>
       </c>
       <c r="F2">
         <v>33.829393954056201</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>26.86979334674643</v>
+        <v>30.333193684649491</v>
       </c>
       <c r="C3">
-        <v>34.915126866031834</v>
+        <v>68.291712523665268</v>
       </c>
       <c r="D3">
-        <v>48.851432707193773</v>
+        <v>69.127959583571368</v>
       </c>
       <c r="E3">
-        <v>183.28514142988689</v>
+        <v>47.032783547921092</v>
       </c>
       <c r="F3">
         <v>25.143259564549318</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>10.157917825033561</v>
+      </c>
+      <c r="C2">
+        <v>19.59818862895651</v>
+      </c>
+      <c r="D2">
+        <v>54.960388722500078</v>
+      </c>
+      <c r="E2">
+        <v>27.878270312035941</v>
+      </c>
+      <c r="F2">
+        <v>33.829393656695132</v>
+      </c>
+      <c r="G2">
+        <v>41.324486365602283</v>
+      </c>
+      <c r="H2">
+        <v>15.746230399770742</v>
+      </c>
+      <c r="I2">
+        <v>24.38190622452467</v>
+      </c>
+      <c r="J2">
+        <v>31.704319006649339</v>
+      </c>
+      <c r="K2">
+        <v>20.604382039708888</v>
+      </c>
+      <c r="L2">
+        <v>24.322953227804593</v>
+      </c>
+      <c r="M2">
+        <v>47.843257144367087</v>
+      </c>
+      <c r="N2">
         <v>17.312042658875065</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>44.663834416666418</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>11.284944278866407</v>
+      </c>
+      <c r="Q2">
+        <v>19.098131003893069</v>
+      </c>
+      <c r="R2">
+        <v>40.736074395676106</v>
+      </c>
+      <c r="T2">
+        <v>31.602233131793923</v>
+      </c>
+      <c r="U2">
+        <v>44.310338571958887</v>
+      </c>
+      <c r="V2">
+        <v>50.738934065196474</v>
+      </c>
+      <c r="W2">
+        <v>34.868620759296157</v>
+      </c>
+      <c r="X2">
+        <v>29.051183246099292</v>
+      </c>
+      <c r="Y2">
+        <v>46.873127426681776</v>
+      </c>
+      <c r="Z2">
+        <v>74.102128404645669</v>
+      </c>
+      <c r="AA2">
+        <v>58.137536717832383</v>
+      </c>
+      <c r="AB2">
+        <v>82.117012050291535</v>
+      </c>
+      <c r="AC2">
+        <v>47.226730922485118</v>
+      </c>
+      <c r="AD2">
+        <v>68.11838562958485</v>
+      </c>
+      <c r="AE2">
+        <v>37.33493404951458</v>
+      </c>
+      <c r="AF2">
+        <v>50.683503197597211</v>
+      </c>
+      <c r="AG2">
+        <v>43.103090777747525</v>
+      </c>
+      <c r="AH2">
+        <v>51.496436725115991</v>
+      </c>
+      <c r="AI2">
+        <v>71.501268286502324</v>
+      </c>
+      <c r="AJ2">
+        <v>43.110371341617878</v>
+      </c>
+      <c r="AK2">
+        <v>31.446993794084964</v>
+      </c>
+      <c r="AL2">
+        <v>26.347639569491101</v>
+      </c>
+      <c r="AM2">
         <v>51.934247515874574</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>48.87056625032141</v>
       </c>
-      <c r="F2">
-        <v>33.829393954056201</v>
-      </c>
-      <c r="G2">
-        <v>41.324486592780211</v>
-      </c>
-      <c r="H2">
-        <v>15.746230512527513</v>
-      </c>
-      <c r="I2">
-        <v>24.38190647413434</v>
-      </c>
-      <c r="J2">
-        <v>31.70431930037735</v>
-      </c>
-      <c r="K2">
-        <v>20.604382251225044</v>
-      </c>
-      <c r="L2">
-        <v>24.322952875451943</v>
-      </c>
-      <c r="M2">
-        <v>47.843257123483276</v>
-      </c>
-      <c r="N2">
-        <v>17.312042827706232</v>
-      </c>
-      <c r="O2">
-        <v>44.663834761267047</v>
-      </c>
-      <c r="P2">
-        <v>11.284944697953476</v>
-      </c>
-      <c r="Q2">
-        <v>19.098131072913013</v>
-      </c>
-      <c r="R2">
-        <v>40.736074767043469</v>
-      </c>
-      <c r="T2">
-        <v>31.602233497446964</v>
-      </c>
-      <c r="U2">
-        <v>44.310338944682002</v>
-      </c>
-      <c r="V2">
-        <v>50.738934451990168</v>
-      </c>
-      <c r="W2">
-        <v>34.868621084734421</v>
-      </c>
-      <c r="X2">
-        <v>29.051183153235279</v>
-      </c>
-      <c r="Y2">
-        <v>46.873127869532603</v>
-      </c>
-      <c r="Z2">
-        <v>74.102129055464218</v>
-      </c>
-      <c r="AA2">
-        <v>58.137537219299716</v>
-      </c>
-      <c r="AB2">
-        <v>82.117012877220645</v>
-      </c>
-      <c r="AC2">
-        <v>47.226731427741825</v>
-      </c>
-      <c r="AD2">
-        <v>68.118386208681187</v>
-      </c>
-      <c r="AE2">
-        <v>37.334934363586754</v>
-      </c>
-      <c r="AF2">
-        <v>50.683503696834187</v>
-      </c>
-      <c r="AG2">
-        <v>43.103091125518958</v>
-      </c>
-      <c r="AH2">
-        <v>51.496437210824041</v>
-      </c>
-      <c r="AI2">
-        <v>71.501268927193323</v>
-      </c>
-      <c r="AJ2">
-        <v>43.110371741536255</v>
-      </c>
-      <c r="AK2">
-        <v>31.446994049177963</v>
-      </c>
-      <c r="AL2">
-        <v>26.34763984738133</v>
-      </c>
-      <c r="AM2">
-        <v>51.934247990362337</v>
-      </c>
-      <c r="AN2">
-        <v>48.870566677367158</v>
-      </c>
       <c r="AO2">
-        <v>51.514734871571356</v>
+        <v>51.514734390219296</v>
       </c>
       <c r="AP2">
-        <v>42.763013751717352</v>
+        <v>42.763013349568567</v>
       </c>
       <c r="AQ2">
-        <v>35.739962611482454</v>
+        <v>35.739962095558155</v>
       </c>
       <c r="AR2">
-        <v>40.147522111484527</v>
+        <v>40.147521894542422</v>
       </c>
       <c r="AS2">
-        <v>49.212317284231553</v>
+        <v>49.212316847978691</v>
       </c>
       <c r="AT2">
-        <v>68.981116870872142</v>
+        <v>68.981116294655109</v>
       </c>
       <c r="AU2">
-        <v>26.844812428814741</v>
+        <v>26.844812160916298</v>
       </c>
       <c r="AV2">
-        <v>69.087466343055254</v>
+        <v>69.087465747175429</v>
       </c>
       <c r="AW2">
-        <v>61.535474026371006</v>
+        <v>61.535473517924963</v>
       </c>
       <c r="AX2">
-        <v>60.975739966022303</v>
+        <v>60.975739363309813</v>
       </c>
       <c r="AY2">
-        <v>61.042352709855827</v>
+        <v>61.04235223274307</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>26.869793101158574</v>
+      </c>
+      <c r="C3">
+        <v>34.915126547334296</v>
+      </c>
+      <c r="D3">
+        <v>48.85143232542746</v>
+      </c>
+      <c r="E3">
+        <v>183.28513930643041</v>
+      </c>
+      <c r="F3">
+        <v>25.143259319915749</v>
+      </c>
+      <c r="G3">
+        <v>35.9061718378696</v>
+      </c>
+      <c r="H3">
+        <v>26.23793614754862</v>
+      </c>
+      <c r="I3">
+        <v>15.480859524455004</v>
+      </c>
+      <c r="J3">
+        <v>45.489901366439774</v>
+      </c>
+      <c r="K3">
+        <v>31.557407577461294</v>
+      </c>
+      <c r="L3">
+        <v>29.15593586932836</v>
+      </c>
+      <c r="M3">
+        <v>35.954237316630184</v>
+      </c>
+      <c r="N3">
         <v>30.333193684649491</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>68.291712523665268</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>59.724146286302179</v>
+      </c>
+      <c r="Q3">
+        <v>17.112737831821807</v>
+      </c>
+      <c r="R3">
+        <v>44.34243611499398</v>
+      </c>
+      <c r="S3">
+        <v>39.237653100394823</v>
+      </c>
+      <c r="T3">
+        <v>35.286204506664717</v>
+      </c>
+      <c r="U3">
+        <v>39.885976283805633</v>
+      </c>
+      <c r="V3">
+        <v>28.29461417321172</v>
+      </c>
+      <c r="W3">
+        <v>39.44947858273003</v>
+      </c>
+      <c r="X3">
+        <v>31.106367170253723</v>
+      </c>
+      <c r="Y3">
+        <v>73.157759253834101</v>
+      </c>
+      <c r="Z3">
+        <v>73.691744032227405</v>
+      </c>
+      <c r="AA3">
+        <v>58.505368377282807</v>
+      </c>
+      <c r="AB3">
+        <v>57.654259930580309</v>
+      </c>
+      <c r="AC3">
+        <v>35.298459124846993</v>
+      </c>
+      <c r="AD3">
+        <v>56.708381780524718</v>
+      </c>
+      <c r="AE3">
+        <v>52.994730414588965</v>
+      </c>
+      <c r="AF3">
+        <v>61.831622496944263</v>
+      </c>
+      <c r="AG3">
+        <v>35.101390059257575</v>
+      </c>
+      <c r="AH3">
+        <v>34.139991523386556</v>
+      </c>
+      <c r="AI3">
+        <v>55.246574811726511</v>
+      </c>
+      <c r="AJ3">
+        <v>59.414680136226529</v>
+      </c>
+      <c r="AK3">
+        <v>40.872347353593376</v>
+      </c>
+      <c r="AL3">
+        <v>46.019329281842744</v>
+      </c>
+      <c r="AM3">
         <v>69.127959583571368</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>47.032783547921092</v>
       </c>
-      <c r="F3">
-        <v>25.143259564549318</v>
-      </c>
-      <c r="G3">
-        <v>35.906172158586244</v>
-      </c>
-      <c r="H3">
-        <v>26.237936367263348</v>
-      </c>
-      <c r="I3">
-        <v>15.480859712581388</v>
-      </c>
-      <c r="J3">
-        <v>45.489901724455379</v>
-      </c>
-      <c r="K3">
-        <v>31.557407905252216</v>
-      </c>
-      <c r="L3">
-        <v>29.155936108453172</v>
-      </c>
-      <c r="M3">
-        <v>35.950924922645264</v>
-      </c>
-      <c r="N3">
-        <v>30.333193715840395</v>
-      </c>
-      <c r="O3">
-        <v>68.291713134781546</v>
-      </c>
-      <c r="P3">
-        <v>59.724146844318859</v>
-      </c>
-      <c r="Q3">
-        <v>17.112738135193769</v>
-      </c>
-      <c r="R3">
-        <v>44.342436475661259</v>
-      </c>
-      <c r="S3">
-        <v>39.23765354394515</v>
-      </c>
-      <c r="T3">
-        <v>35.286204842344496</v>
-      </c>
-      <c r="U3">
-        <v>39.885976679604532</v>
-      </c>
-      <c r="V3">
-        <v>28.294614371481259</v>
-      </c>
-      <c r="W3">
-        <v>39.449478634693143</v>
-      </c>
-      <c r="X3">
-        <v>31.10636744546003</v>
-      </c>
-      <c r="Y3">
-        <v>73.157759855144505</v>
-      </c>
-      <c r="Z3">
-        <v>73.691744684544176</v>
-      </c>
-      <c r="AA3">
-        <v>58.505369020645169</v>
-      </c>
-      <c r="AB3">
-        <v>57.654260474615846</v>
-      </c>
-      <c r="AC3">
-        <v>35.298459469591322</v>
-      </c>
-      <c r="AD3">
-        <v>56.708382321554907</v>
-      </c>
-      <c r="AE3">
-        <v>52.994730892147466</v>
-      </c>
-      <c r="AF3">
-        <v>61.831623111663717</v>
-      </c>
-      <c r="AG3">
-        <v>35.101390433806287</v>
-      </c>
-      <c r="AH3">
-        <v>34.139991730003572</v>
-      </c>
-      <c r="AI3">
-        <v>55.246575236677209</v>
-      </c>
-      <c r="AJ3">
-        <v>59.414680685436416</v>
-      </c>
-      <c r="AK3">
-        <v>40.872347734999551</v>
-      </c>
-      <c r="AL3">
-        <v>46.019329743752188</v>
-      </c>
-      <c r="AM3">
-        <v>69.12796027587531</v>
-      </c>
-      <c r="AN3">
-        <v>47.032783948673362</v>
-      </c>
       <c r="AO3">
-        <v>87.695087615686973</v>
+        <v>87.695086846756197</v>
       </c>
       <c r="AP3">
-        <v>50.28015910235689</v>
+        <v>50.280158643138371</v>
       </c>
       <c r="AQ3">
-        <v>17.959769131532035</v>
+        <v>17.959768971462918</v>
       </c>
       <c r="AR3">
-        <v>43.409393099401974</v>
+        <v>43.409392733450211</v>
       </c>
       <c r="AS3">
-        <v>47.289831801062746</v>
+        <v>47.289831470314105</v>
       </c>
       <c r="AT3">
-        <v>60.437187185095432</v>
+        <v>60.437186442182366</v>
       </c>
       <c r="AU3">
-        <v>25.824627668321781</v>
+        <v>25.82462742495899</v>
       </c>
       <c r="AV3">
-        <v>48.175406816009556</v>
+        <v>48.175406335426274</v>
       </c>
       <c r="AW3">
-        <v>48.471267249543352</v>
+        <v>48.471266881299528</v>
       </c>
       <c r="AX3">
-        <v>37.756105655407936</v>
+        <v>37.756104374737909</v>
       </c>
       <c r="AY3">
-        <v>67.278804168408641</v>
+        <v>67.278803567562136</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_max.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -337,7 +342,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -351,7 +356,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -513,151 +518,151 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.157917825033561</v>
+        <v>10.1579178889515</v>
       </c>
       <c r="C2">
-        <v>19.59818862895651</v>
+        <v>19.598188785896209</v>
       </c>
       <c r="D2">
-        <v>54.960388722500078</v>
+        <v>54.960389128487662</v>
       </c>
       <c r="E2">
-        <v>27.878270312035941</v>
+        <v>27.878270548128647</v>
       </c>
       <c r="F2">
-        <v>33.829393656695132</v>
+        <v>33.829393954056201</v>
       </c>
       <c r="G2">
-        <v>41.324486365602283</v>
+        <v>41.324486592780211</v>
       </c>
       <c r="H2">
-        <v>15.746230399770742</v>
+        <v>15.746230512527513</v>
       </c>
       <c r="I2">
-        <v>24.38190622452467</v>
+        <v>24.38190647413434</v>
       </c>
       <c r="J2">
-        <v>31.704319006649339</v>
+        <v>31.70431930037735</v>
       </c>
       <c r="K2">
-        <v>20.604382039708888</v>
+        <v>20.604382251225044</v>
       </c>
       <c r="L2">
-        <v>24.322953227804593</v>
+        <v>24.322952875451943</v>
       </c>
       <c r="M2">
-        <v>47.843257144367087</v>
+        <v>47.843257123483276</v>
       </c>
       <c r="N2">
-        <v>17.312042658875065</v>
+        <v>17.312042827706232</v>
       </c>
       <c r="O2">
-        <v>44.663834416666418</v>
+        <v>44.663834761267047</v>
       </c>
       <c r="P2">
-        <v>11.284944278866407</v>
+        <v>11.284944697953476</v>
       </c>
       <c r="Q2">
-        <v>19.098131003893069</v>
+        <v>19.098131072913013</v>
       </c>
       <c r="R2">
-        <v>40.736074395676106</v>
+        <v>44.342436475661259</v>
       </c>
       <c r="T2">
-        <v>31.602233131793923</v>
+        <v>31.602233497446964</v>
       </c>
       <c r="U2">
-        <v>44.310338571958887</v>
+        <v>44.310338944682002</v>
       </c>
       <c r="V2">
-        <v>50.738934065196474</v>
+        <v>50.738934451990168</v>
       </c>
       <c r="W2">
-        <v>34.868620759296157</v>
+        <v>34.868621084734421</v>
       </c>
       <c r="X2">
-        <v>29.051183246099292</v>
+        <v>29.051183153235279</v>
       </c>
       <c r="Y2">
-        <v>46.873127426681776</v>
+        <v>46.873127869532603</v>
       </c>
       <c r="Z2">
-        <v>74.102128404645669</v>
+        <v>74.102129055464218</v>
       </c>
       <c r="AA2">
-        <v>58.137536717832383</v>
+        <v>58.137537219299716</v>
       </c>
       <c r="AB2">
-        <v>82.117012050291535</v>
+        <v>82.117012877220645</v>
       </c>
       <c r="AC2">
-        <v>47.226730922485118</v>
+        <v>47.226731427741825</v>
       </c>
       <c r="AD2">
-        <v>68.11838562958485</v>
+        <v>68.118386208681187</v>
       </c>
       <c r="AE2">
-        <v>37.33493404951458</v>
+        <v>37.334934363586754</v>
       </c>
       <c r="AF2">
-        <v>50.683503197597211</v>
+        <v>50.683503696834187</v>
       </c>
       <c r="AG2">
-        <v>43.103090777747525</v>
+        <v>43.103091125518958</v>
       </c>
       <c r="AH2">
-        <v>51.496436725115991</v>
+        <v>51.496437210824041</v>
       </c>
       <c r="AI2">
-        <v>71.501268286502324</v>
+        <v>71.501268927193323</v>
       </c>
       <c r="AJ2">
-        <v>43.110371341617878</v>
+        <v>43.110371741536255</v>
       </c>
       <c r="AK2">
-        <v>31.446993794084964</v>
+        <v>31.446994049177963</v>
       </c>
       <c r="AL2">
-        <v>26.347639569491101</v>
+        <v>26.34763984738133</v>
       </c>
       <c r="AM2">
-        <v>51.934247515874574</v>
+        <v>51.934247990362337</v>
       </c>
       <c r="AN2">
-        <v>48.87056625032141</v>
+        <v>48.870566677367158</v>
       </c>
       <c r="AO2">
-        <v>51.514734390219296</v>
+        <v>51.514734871571356</v>
       </c>
       <c r="AP2">
-        <v>42.763013349568567</v>
+        <v>42.763013751717352</v>
       </c>
       <c r="AQ2">
-        <v>35.739962095558155</v>
+        <v>17.959769131532035</v>
       </c>
       <c r="AR2">
-        <v>40.147521894542422</v>
+        <v>40.147522111484527</v>
       </c>
       <c r="AS2">
-        <v>49.212316847978691</v>
+        <v>49.212317284231553</v>
       </c>
       <c r="AT2">
-        <v>68.981116294655109</v>
+        <v>68.981116870872142</v>
       </c>
       <c r="AU2">
-        <v>26.844812160916298</v>
+        <v>26.844812428814741</v>
       </c>
       <c r="AV2">
-        <v>69.087465747175429</v>
+        <v>69.087466343055254</v>
       </c>
       <c r="AW2">
-        <v>61.535473517924963</v>
+        <v>61.535474026371006</v>
       </c>
       <c r="AX2">
-        <v>60.975739363309813</v>
+        <v>60.975739966022303</v>
       </c>
       <c r="AY2">
-        <v>61.04235223274307</v>
+        <v>61.042352709855827</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +670,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>26.869793101158574</v>
+        <v>26.86979334674643</v>
       </c>
       <c r="C3">
-        <v>34.915126547334296</v>
+        <v>34.915126866031834</v>
       </c>
       <c r="D3">
-        <v>48.85143232542746</v>
+        <v>48.851432707193773</v>
       </c>
       <c r="E3">
-        <v>183.28513930643041</v>
+        <v>183.28514142988689</v>
       </c>
       <c r="F3">
-        <v>25.143259319915749</v>
+        <v>25.143259564549318</v>
       </c>
       <c r="G3">
-        <v>35.9061718378696</v>
+        <v>35.906172158586244</v>
       </c>
       <c r="H3">
-        <v>26.23793614754862</v>
+        <v>26.237936367263348</v>
       </c>
       <c r="I3">
-        <v>15.480859524455004</v>
+        <v>15.480859712581388</v>
       </c>
       <c r="J3">
-        <v>45.489901366439774</v>
+        <v>45.489901724455379</v>
       </c>
       <c r="K3">
-        <v>31.557407577461294</v>
+        <v>31.557407905252216</v>
       </c>
       <c r="L3">
-        <v>29.15593586932836</v>
+        <v>29.155936108453172</v>
       </c>
       <c r="M3">
-        <v>35.954237316630184</v>
+        <v>35.950924922645264</v>
       </c>
       <c r="N3">
-        <v>30.333193684649491</v>
+        <v>30.333193715840395</v>
       </c>
       <c r="O3">
-        <v>68.291712523665268</v>
+        <v>68.291713134781546</v>
       </c>
       <c r="P3">
-        <v>59.724146286302179</v>
+        <v>59.724146844318859</v>
       </c>
       <c r="Q3">
-        <v>17.112737831821807</v>
+        <v>17.112738135193769</v>
       </c>
       <c r="R3">
-        <v>44.34243611499398</v>
+        <v>40.919423938942096</v>
       </c>
       <c r="S3">
-        <v>39.237653100394823</v>
+        <v>39.23765354394515</v>
       </c>
       <c r="T3">
-        <v>35.286204506664717</v>
+        <v>35.286204842344496</v>
       </c>
       <c r="U3">
-        <v>39.885976283805633</v>
+        <v>39.885976679604532</v>
       </c>
       <c r="V3">
-        <v>28.29461417321172</v>
+        <v>28.294614371481259</v>
       </c>
       <c r="W3">
-        <v>39.44947858273003</v>
+        <v>39.449478634693143</v>
       </c>
       <c r="X3">
-        <v>31.106367170253723</v>
+        <v>31.10636744546003</v>
       </c>
       <c r="Y3">
-        <v>73.157759253834101</v>
+        <v>73.157759855144505</v>
       </c>
       <c r="Z3">
-        <v>73.691744032227405</v>
+        <v>73.691744684544176</v>
       </c>
       <c r="AA3">
-        <v>58.505368377282807</v>
+        <v>58.505369020645169</v>
       </c>
       <c r="AB3">
-        <v>57.654259930580309</v>
+        <v>57.654260474615846</v>
       </c>
       <c r="AC3">
-        <v>35.298459124846993</v>
+        <v>35.298459469591322</v>
       </c>
       <c r="AD3">
-        <v>56.708381780524718</v>
+        <v>56.708382321554907</v>
       </c>
       <c r="AE3">
-        <v>52.994730414588965</v>
+        <v>52.994730892147466</v>
       </c>
       <c r="AF3">
-        <v>61.831622496944263</v>
+        <v>61.831623111663717</v>
       </c>
       <c r="AG3">
-        <v>35.101390059257575</v>
+        <v>35.101390433806287</v>
       </c>
       <c r="AH3">
-        <v>34.139991523386556</v>
+        <v>34.139991730003572</v>
       </c>
       <c r="AI3">
-        <v>55.246574811726511</v>
+        <v>55.246575236677209</v>
       </c>
       <c r="AJ3">
-        <v>59.414680136226529</v>
+        <v>59.414680685436416</v>
       </c>
       <c r="AK3">
-        <v>40.872347353593376</v>
+        <v>40.872347734999551</v>
       </c>
       <c r="AL3">
-        <v>46.019329281842744</v>
+        <v>46.019329743752188</v>
       </c>
       <c r="AM3">
-        <v>69.127959583571368</v>
+        <v>69.12796027587531</v>
       </c>
       <c r="AN3">
-        <v>47.032783547921092</v>
+        <v>47.032783948673362</v>
       </c>
       <c r="AO3">
-        <v>87.695086846756197</v>
+        <v>87.695087615686973</v>
       </c>
       <c r="AP3">
-        <v>50.280158643138371</v>
+        <v>50.28015910235689</v>
       </c>
       <c r="AQ3">
-        <v>17.959768971462918</v>
+        <v>28.062484626069789</v>
       </c>
       <c r="AR3">
-        <v>43.409392733450211</v>
+        <v>43.409393099401974</v>
       </c>
       <c r="AS3">
-        <v>47.289831470314105</v>
+        <v>47.289831801062746</v>
       </c>
       <c r="AT3">
-        <v>60.437186442182366</v>
+        <v>60.437187185095432</v>
       </c>
       <c r="AU3">
-        <v>25.82462742495899</v>
+        <v>25.824627668321781</v>
       </c>
       <c r="AV3">
-        <v>48.175406335426274</v>
+        <v>48.175406816009556</v>
       </c>
       <c r="AW3">
-        <v>48.471266881299528</v>
+        <v>48.471267249543352</v>
       </c>
       <c r="AX3">
-        <v>37.756104374737909</v>
+        <v>37.756105655407936</v>
       </c>
       <c r="AY3">
-        <v>67.278803567562136</v>
+        <v>67.278804168408641</v>
       </c>
     </row>
   </sheetData>
